--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_test.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL411662</t>
+          <t>CHEMBL512342</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>420.85</v>
+        <v>458.87</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>91.56</v>
+        <v>125.79</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1380&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL512342</t>
+          <t>CHEMBL452078</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>458.87</v>
+        <v>537.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>125.79</v>
+        <v>77.81</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A28F0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL270021</t>
+          <t>CHEMBL520537</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>534.01</v>
+        <v>484.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>104.03</v>
+        <v>106.22</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1460&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL452078</t>
+          <t>CHEMBL255565</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,35 +760,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>537.45</v>
+        <v>532.04</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>77.81</v>
+        <v>94.8</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72644A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A13F0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL461134</t>
+          <t>CHEMBL519212</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>530.41</v>
+        <v>517.97</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>83.36</v>
+        <v>100.87</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3530&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL520071</t>
+          <t>CHEMBL508412</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>510.38</v>
+        <v>503</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>83.8</v>
+        <v>77.81</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DBD0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL271084</t>
+          <t>CHEMBL529897</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>502.01</v>
+        <v>456.89</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -992,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>74.56999999999999</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E8F0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL519212</t>
+          <t>CHEMBL486101</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>517.97</v>
+        <v>538.39</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7266570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E6C0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL508412</t>
+          <t>CHEMBL483786</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5Cl)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>503</v>
+        <v>533.37</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1134,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>77.81</v>
+        <v>106.22</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72660A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CEB0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL529897</t>
+          <t>CHEMBL529669</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>456.89</v>
+        <v>475.93</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1202,10 +1202,10 @@
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>89.15000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E180&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,52 +1228,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL483786</t>
+          <t>C40372503</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>533.37</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
       <c r="M12" t="n">
-        <v>106.22</v>
+        <v>100.6</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72666C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E3B0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C40372503</t>
+          <t>C59168060</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
+          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cc1ncsc1C(=O)NC1(/C(N)=N/O)CCC(C)CC1</t>
+          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>296.4</v>
+        <v>466.29</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="n">
-        <v>100.6</v>
+        <v>89.55</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9882E0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C59168060</t>
+          <t>C15093087</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
+          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccnc1)/C(=C\c1ccc2c(c1)OCO2)NC(=O)c1ccc(Br)cc1</t>
+          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>466.29</v>
+        <v>477.52</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -1406,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>89.55</v>
+        <v>96.33</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AE6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD989150&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C15093087</t>
+          <t>C03357084</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
+          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC(=O)N(c1nc(/C=C/C(=O)NNC(=O)c2cn(C)c3ccccc23)cs1)c1ccccc1F</t>
+          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>477.52</v>
+        <v>482.3</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -1471,13 +1471,13 @@
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>96.33</v>
+        <v>88.41</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988200&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C03357084</t>
+          <t>C50360496</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
+          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2ccc(S(=O)(=O)Nc3ccc(I)cc3)cc2)o1</t>
+          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>482.3</v>
+        <v>465.93</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>88.41</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988F90&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C50360496</t>
+          <t>C22822589</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
+          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2cc(Br)c(NCc3cc(Br)c(Br)o3)cc2[nH]1</t>
+          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>465.93</v>
+        <v>500.57</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>73.81999999999999</v>
+        <v>66.38</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AFD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988EB0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C22822589</t>
+          <t>C13638161</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
+          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1cccc([C@@H]2CC(=O)C3=C(C2)NC(Nc2nc4ccccc4s2)=N[C@@H]3c2cc(F)cc(F)c2)c1</t>
+          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>500.57</v>
+        <v>378.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>66.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AEF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988AC0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C13638161</t>
+          <t>C29037886</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
+          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CSc1nc2nc(C(C)C)c(-c3ccc(Br)cc3)c(N)n2n1</t>
+          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>378.3</v>
+        <v>423.54</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
       <c r="M19" t="n">
-        <v>69.09999999999999</v>
+        <v>110.04</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72ACB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988350&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C29037886</t>
+          <t>C23191775</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
+          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CC(C)c1cc(C2=CCN(C(=O)[C@H]3[NH2+]CC4(CC4)C[C@@H]3C(=O)NO)CC2)ccc1C#N</t>
+          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,29 +1795,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>423.54</v>
+        <v>391.54</v>
       </c>
       <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>110.04</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AE110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988120&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C23191775</t>
+          <t>C20214186</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
+          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1cc(C)n(-c2ccc(N3CCC([NH2+]Cc4cc(C5CC5)[nH]n4)CC3)cc2)n1</t>
+          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>391.54</v>
+        <v>483.01</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>66.34999999999999</v>
+        <v>73.91</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AE0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988510&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C20214186</t>
+          <t>C40984335</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
+          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1=C(CN2CCN(c3cc(C)ccc3C)CC2)NC(=O)N[C@@H]1c1ccc(Cl)cc1</t>
+          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>483.01</v>
+        <v>518.5599999999999</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1944,16 +1944,16 @@
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>73.91</v>
+        <v>78.03</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AE260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988E40&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C40984335</t>
+          <t>C54982236</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
+          <t>Nc1nc(Cl)cc(NC2[C@@H]3CCC[C@H]2C[NH+](C2CC2)C3)n1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nc(C[NH+]3CCC(C(=O)NCc4cccc(C(F)(F)F)c4)CC3)c(C)o2)cc1OC</t>
+          <t>Nc1nc(Cl)cc(NC2[C@H]3CCC[C@@H]2C[NH+](C2CC2)C3)n1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>518.5599999999999</v>
+        <v>308.84</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>78.03</v>
+        <v>68.27</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72ADFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988740&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C54982236</t>
+          <t>C40709637</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nc1nc(Cl)cc(NC2[C@@H]3CCC[C@H]2C[NH+](C2CC2)C3)n1</t>
+          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nc1nc(Cl)cc(NC2[C@H]3CCC[C@@H]2C[NH+](C2CC2)C3)n1</t>
+          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>308.84</v>
+        <v>478.37</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>68.27</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AEFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988900&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C40709637</t>
+          <t>C63530470</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
+          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nc1c(Nc2ccc(Br)cc2F)ncnc1N(Cc1ccccc1)Cc1ccccc1</t>
+          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>478.37</v>
+        <v>465.98</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>67.06999999999999</v>
+        <v>61.53</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AD0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988970&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C63530470</t>
+          <t>CHEMBL3628627</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
+          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)[C@@H]1[NH+]=c2ccccc2=C1Sc1ccc(Cl)cc1)c1ccc2c(c1)OCCO2</t>
+          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2203,137 +2203,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>465.98</v>
+        <v>684.77</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>61.53</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+        <v>143.48</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>-33.13</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CHEMBL3631623</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD988CF0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CHEMBL3628627</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>684.77</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>143.48</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>-33.13</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72AD2A0&gt;</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
